--- a/ExcelFiles/ExcelInputGivingFile.xlsx
+++ b/ExcelFiles/ExcelInputGivingFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>From</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>tsathish19391@gmail.com</t>
+  </si>
+  <si>
+    <t>manjula</t>
+  </si>
+  <si>
+    <t>sindhu</t>
+  </si>
+  <si>
+    <t>yazhini</t>
+  </si>
+  <si>
+    <t>yasodha</t>
   </si>
 </sst>
 </file>
@@ -93,10 +105,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -392,16 +405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -451,6 +464,50 @@
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>33316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>33317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43696</v>
       </c>
     </row>
   </sheetData>
